--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Tgfb1-Tgfbr1.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Tgfb1-Tgfbr1.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>78.2200418873781</v>
+        <v>88.72291666666666</v>
       </c>
       <c r="H2">
-        <v>78.2200418873781</v>
+        <v>266.16875</v>
       </c>
       <c r="I2">
-        <v>0.7492556934372211</v>
+        <v>0.7675060578750151</v>
       </c>
       <c r="J2">
-        <v>0.7492556934372211</v>
+        <v>0.7675060578750152</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>28.9681149723328</v>
+        <v>63.76294533333333</v>
       </c>
       <c r="N2">
-        <v>28.9681149723328</v>
+        <v>191.288836</v>
       </c>
       <c r="O2">
-        <v>0.4560857606065465</v>
+        <v>0.6446527016991613</v>
       </c>
       <c r="P2">
-        <v>0.4560857606065465</v>
+        <v>0.6446527016991614</v>
       </c>
       <c r="Q2">
-        <v>2265.887166534256</v>
+        <v>5657.234485230555</v>
       </c>
       <c r="R2">
-        <v>2265.887166534256</v>
+        <v>50915.110367075</v>
       </c>
       <c r="S2">
-        <v>0.3417248528301004</v>
+        <v>0.4947748537796014</v>
       </c>
       <c r="T2">
-        <v>0.3417248528301004</v>
+        <v>0.4947748537796016</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>78.2200418873781</v>
+        <v>88.72291666666666</v>
       </c>
       <c r="H3">
-        <v>78.2200418873781</v>
+        <v>266.16875</v>
       </c>
       <c r="I3">
-        <v>0.7492556934372211</v>
+        <v>0.7675060578750151</v>
       </c>
       <c r="J3">
-        <v>0.7492556934372211</v>
+        <v>0.7675060578750152</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>22.1995066723137</v>
+        <v>22.32219333333333</v>
       </c>
       <c r="N3">
-        <v>22.1995066723137</v>
+        <v>66.96657999999999</v>
       </c>
       <c r="O3">
-        <v>0.3495180440771684</v>
+        <v>0.2256806388876402</v>
       </c>
       <c r="P3">
-        <v>0.3495180440771684</v>
+        <v>0.2256806388876402</v>
       </c>
       <c r="Q3">
-        <v>1736.446341787507</v>
+        <v>1980.490098930555</v>
       </c>
       <c r="R3">
-        <v>1736.446341787507</v>
+        <v>17824.410890375</v>
       </c>
       <c r="S3">
-        <v>0.26187838448386</v>
+        <v>0.1732112574913675</v>
       </c>
       <c r="T3">
-        <v>0.26187838448386</v>
+        <v>0.1732112574913676</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>78.2200418873781</v>
+        <v>88.72291666666666</v>
       </c>
       <c r="H4">
-        <v>78.2200418873781</v>
+        <v>266.16875</v>
       </c>
       <c r="I4">
-        <v>0.7492556934372211</v>
+        <v>0.7675060578750151</v>
       </c>
       <c r="J4">
-        <v>0.7492556934372211</v>
+        <v>0.7675060578750152</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>12.3470009864311</v>
+        <v>12.825399</v>
       </c>
       <c r="N4">
-        <v>12.3470009864311</v>
+        <v>38.476197</v>
       </c>
       <c r="O4">
-        <v>0.194396195316285</v>
+        <v>0.1296666594131984</v>
       </c>
       <c r="P4">
-        <v>0.194396195316285</v>
+        <v>0.1296666594131984</v>
       </c>
       <c r="Q4">
-        <v>965.7829343421394</v>
+        <v>1137.90680669375</v>
       </c>
       <c r="R4">
-        <v>965.7829343421394</v>
+        <v>10241.16126024375</v>
       </c>
       <c r="S4">
-        <v>0.1456524561232606</v>
+        <v>0.09951994660404613</v>
       </c>
       <c r="T4">
-        <v>0.1456524561232606</v>
+        <v>0.09951994660404614</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>17.7865645371817</v>
+        <v>17.91585</v>
       </c>
       <c r="H5">
-        <v>17.7865645371817</v>
+        <v>53.74755</v>
       </c>
       <c r="I5">
-        <v>0.170374298256703</v>
+        <v>0.1549827702197958</v>
       </c>
       <c r="J5">
-        <v>0.170374298256703</v>
+        <v>0.1549827702197958</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>28.9681149723328</v>
+        <v>63.76294533333333</v>
       </c>
       <c r="N5">
-        <v>28.9681149723328</v>
+        <v>191.288836</v>
       </c>
       <c r="O5">
-        <v>0.4560857606065465</v>
+        <v>0.6446527016991613</v>
       </c>
       <c r="P5">
-        <v>0.4560857606065465</v>
+        <v>0.6446527016991614</v>
       </c>
       <c r="Q5">
-        <v>515.2432464758969</v>
+        <v>1142.3673641502</v>
       </c>
       <c r="R5">
-        <v>515.2432464758969</v>
+        <v>10281.3062773518</v>
       </c>
       <c r="S5">
-        <v>0.07770529140821501</v>
+        <v>0.09991006153901169</v>
       </c>
       <c r="T5">
-        <v>0.07770529140821501</v>
+        <v>0.09991006153901173</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>17.7865645371817</v>
+        <v>17.91585</v>
       </c>
       <c r="H6">
-        <v>17.7865645371817</v>
+        <v>53.74755</v>
       </c>
       <c r="I6">
-        <v>0.170374298256703</v>
+        <v>0.1549827702197958</v>
       </c>
       <c r="J6">
-        <v>0.170374298256703</v>
+        <v>0.1549827702197958</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>22.1995066723137</v>
+        <v>22.32219333333333</v>
       </c>
       <c r="N6">
-        <v>22.1995066723137</v>
+        <v>66.96657999999999</v>
       </c>
       <c r="O6">
-        <v>0.3495180440771684</v>
+        <v>0.2256806388876402</v>
       </c>
       <c r="P6">
-        <v>0.3495180440771684</v>
+        <v>0.2256806388876402</v>
       </c>
       <c r="Q6">
-        <v>394.8529581207034</v>
+        <v>399.921067431</v>
       </c>
       <c r="R6">
-        <v>394.8529581207034</v>
+        <v>3599.289606879</v>
       </c>
       <c r="S6">
-        <v>0.05954889148770297</v>
+        <v>0.03497661059977985</v>
       </c>
       <c r="T6">
-        <v>0.05954889148770297</v>
+        <v>0.03497661059977986</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>17.7865645371817</v>
+        <v>17.91585</v>
       </c>
       <c r="H7">
-        <v>17.7865645371817</v>
+        <v>53.74755</v>
       </c>
       <c r="I7">
-        <v>0.170374298256703</v>
+        <v>0.1549827702197958</v>
       </c>
       <c r="J7">
-        <v>0.170374298256703</v>
+        <v>0.1549827702197958</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>12.3470009864311</v>
+        <v>12.825399</v>
       </c>
       <c r="N7">
-        <v>12.3470009864311</v>
+        <v>38.476197</v>
       </c>
       <c r="O7">
-        <v>0.194396195316285</v>
+        <v>0.1296666594131984</v>
       </c>
       <c r="P7">
-        <v>0.194396195316285</v>
+        <v>0.1296666594131984</v>
       </c>
       <c r="Q7">
-        <v>219.6107298858029</v>
+        <v>229.77792467415</v>
       </c>
       <c r="R7">
-        <v>219.6107298858029</v>
+        <v>2068.00132206735</v>
       </c>
       <c r="S7">
-        <v>0.03312011536078505</v>
+        <v>0.02009609808100425</v>
       </c>
       <c r="T7">
-        <v>0.03312011536078505</v>
+        <v>0.02009609808100426</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>8.390387248644799</v>
+        <v>8.960212333333333</v>
       </c>
       <c r="H8">
-        <v>8.390387248644799</v>
+        <v>26.880637</v>
       </c>
       <c r="I8">
-        <v>0.08037000830607582</v>
+        <v>0.077511171905189</v>
       </c>
       <c r="J8">
-        <v>0.08037000830607582</v>
+        <v>0.07751117190518901</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>28.9681149723328</v>
+        <v>63.76294533333333</v>
       </c>
       <c r="N8">
-        <v>28.9681149723328</v>
+        <v>191.288836</v>
       </c>
       <c r="O8">
-        <v>0.4560857606065465</v>
+        <v>0.6446527016991613</v>
       </c>
       <c r="P8">
-        <v>0.4560857606065465</v>
+        <v>0.6446527016991614</v>
       </c>
       <c r="Q8">
-        <v>243.0537024811376</v>
+        <v>571.3295291853924</v>
       </c>
       <c r="R8">
-        <v>243.0537024811376</v>
+        <v>5141.965762668532</v>
       </c>
       <c r="S8">
-        <v>0.03665561636823105</v>
+        <v>0.04996778638054822</v>
       </c>
       <c r="T8">
-        <v>0.03665561636823105</v>
+        <v>0.04996778638054823</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>8.390387248644799</v>
+        <v>8.960212333333333</v>
       </c>
       <c r="H9">
-        <v>8.390387248644799</v>
+        <v>26.880637</v>
       </c>
       <c r="I9">
-        <v>0.08037000830607582</v>
+        <v>0.077511171905189</v>
       </c>
       <c r="J9">
-        <v>0.08037000830607582</v>
+        <v>0.07751117190518901</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>22.1995066723137</v>
+        <v>22.32219333333333</v>
       </c>
       <c r="N9">
-        <v>22.1995066723137</v>
+        <v>66.96657999999999</v>
       </c>
       <c r="O9">
-        <v>0.3495180440771684</v>
+        <v>0.2256806388876402</v>
       </c>
       <c r="P9">
-        <v>0.3495180440771684</v>
+        <v>0.2256806388876402</v>
       </c>
       <c r="Q9">
-        <v>186.262457709586</v>
+        <v>200.0115920123844</v>
       </c>
       <c r="R9">
-        <v>186.262457709586</v>
+        <v>1800.10432811146</v>
       </c>
       <c r="S9">
-        <v>0.0280907681056054</v>
+        <v>0.01749277079649276</v>
       </c>
       <c r="T9">
-        <v>0.0280907681056054</v>
+        <v>0.01749277079649276</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>8.390387248644799</v>
+        <v>8.960212333333333</v>
       </c>
       <c r="H10">
-        <v>8.390387248644799</v>
+        <v>26.880637</v>
       </c>
       <c r="I10">
-        <v>0.08037000830607582</v>
+        <v>0.077511171905189</v>
       </c>
       <c r="J10">
-        <v>0.08037000830607582</v>
+        <v>0.07751117190518901</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>12.3470009864311</v>
+        <v>12.825399</v>
       </c>
       <c r="N10">
-        <v>12.3470009864311</v>
+        <v>38.476197</v>
       </c>
       <c r="O10">
-        <v>0.194396195316285</v>
+        <v>0.1296666594131984</v>
       </c>
       <c r="P10">
-        <v>0.194396195316285</v>
+        <v>0.1296666594131984</v>
       </c>
       <c r="Q10">
-        <v>103.5961196355563</v>
+        <v>114.918298299721</v>
       </c>
       <c r="R10">
-        <v>103.5961196355563</v>
+        <v>1034.264684697489</v>
       </c>
       <c r="S10">
-        <v>0.01562362383223937</v>
+        <v>0.01005061472814802</v>
       </c>
       <c r="T10">
-        <v>0.01562362383223937</v>
+        <v>0.01005061472814802</v>
       </c>
     </row>
   </sheetData>
